--- a/Riesgos/RIESGOS.xlsx
+++ b/Riesgos/RIESGOS.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERSONAL\OneDrive\Documentos\Third System\Riesgos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD7065E-67C1-4BF1-BE1E-C233C456F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1AA868-B4C4-488A-8389-86BB9395CC95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BCBEE655-3E4B-4D90-933F-B745B0248B97}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{FE93DE2A-A8F7-4FC8-B574-89E8439FD97A}"/>
+    <workbookView xWindow="14400" yWindow="615" windowWidth="14400" windowHeight="14865" xr2:uid="{BCBEE655-3E4B-4D90-933F-B745B0248B97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista de Riesgos" sheetId="1" r:id="rId1"/>
-    <sheet name="Matriz de Riesgos" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Mtriz Riesgos</t>
   </si>
@@ -108,6 +98,12 @@
   </si>
   <si>
     <t>Riesgos de Negocio</t>
+  </si>
+  <si>
+    <t>Riesgos Naturales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -284,9 +280,140 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;Riesgo Aceptable&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;Riesgo Tolerable&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Riesgo aceptable&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="&quot;Riesgo Extremo&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;Riesgo Aceptable&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="&quot;Riesgo Alto&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="&quot;Riesgo Alto2&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="&quot;Riesgo Extremo&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="&quot;Riesgo Alto&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="&quot;Riesgo tolerable&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="&quot;Riesgo tolerable&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;Riesgo Tolerable&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Riesgo aceptable&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -303,6 +430,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -322,110 +452,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;Riesgo Alto&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="&quot;Riesgo Alto2&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;Riesgo Extremo&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;Riesgo Alto&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="&quot;Riesgo tolerable&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="&quot;Riesgo tolerable&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;Riesgo Extremo&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;Riesgo Aceptable&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;Riesgo Tolerable&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="&quot;Riesgo aceptable&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -440,13 +466,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7307ACA2-82A9-476F-B7E9-07CDD7758A9C}" name="Tabla1" displayName="Tabla1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4">
-  <autoFilter ref="A1:D6" xr:uid="{647BCD8A-63AD-43B1-893E-A2194BD31B10}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7307ACA2-82A9-476F-B7E9-07CDD7758A9C}" name="Tabla1" displayName="Tabla1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="16">
+  <autoFilter ref="A1:D7" xr:uid="{647BCD8A-63AD-43B1-893E-A2194BD31B10}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5BED4DFE-378D-4532-A9BC-55E30FAC0548}" name="Evento"/>
-    <tableColumn id="2" xr3:uid="{D3FF1680-CDDE-4708-ABA7-1CA17D521D5A}" name="Probabilidad" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{93DE7560-42D7-4084-A0F5-896BA39D0960}" name="Concecuencia" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{106A8BC6-1EED-433B-BFE8-7C87CAEDEE14}" name="Nivel Riesgo" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D3FF1680-CDDE-4708-ABA7-1CA17D521D5A}" name="Probabilidad" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{93DE7560-42D7-4084-A0F5-896BA39D0960}" name="Concecuencia" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{106A8BC6-1EED-433B-BFE8-7C87CAEDEE14}" name="Nivel Riesgo" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -752,12 +778,11 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -803,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4">
         <v>5</v>
@@ -851,47 +876,71 @@
         <v>32</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D6">
-    <cfRule type="expression" dxfId="15" priority="10">
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>AND(D2&gt;=1*(D2&gt;=4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>AND(D3&gt;=5*(D3&gt;=4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>AND(D2&gt;=1*(D2&gt;=4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(D2&gt;=1*(D2&gt;=1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>AND(D3&gt;=5*(D3&gt;=4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>AND(D3&gt;=5*(D3&gt;=4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>AND(D4&gt;=16*(D4&gt;=4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>AND(D5&gt;=32*(D5&gt;=4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND(D2&gt;=32*(D2&gt;=4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>AND(D2&gt;=32*(D2&gt;=32))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(D7&gt;=1*(D7&gt;=1))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -904,15 +953,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20E94D34-01BE-404C-B5CB-CC5C81D8C26E}">
           <x14:formula1>
-            <xm:f>'Matriz de Riesgos'!$B$5:$B$9</xm:f>
+            <xm:f>Hoja2!$B$5:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B6</xm:sqref>
+          <xm:sqref>B2:B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{369F626E-7507-45BD-A583-AECC58036E38}">
           <x14:formula1>
-            <xm:f>'Matriz de Riesgos'!$D$3:$H$3</xm:f>
+            <xm:f>Hoja2!$D$3:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C6</xm:sqref>
+          <xm:sqref>C2:C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -928,10 +977,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="1">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
